--- a/exports/javivg3.xlsx
+++ b/exports/javivg3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>username</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>nombre_completo</t>
+          <t>usuario</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>biografia</t>
+          <t>email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>enlace_bio</t>
+          <t>telefono</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -466,29 +466,24 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>publicaciones</t>
+          <t>hashtags</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>verificado</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>privado</t>
+          <t>origen</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Javier Villaseñor García</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>javivg3</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Javier Villaseñor García</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -497,16 +492,17 @@
         <v>668</v>
       </c>
       <c r="F2" t="n">
-        <v>678</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
+        <v>679</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>pendiente_busqueda</t>
+        </is>
       </c>
     </row>
   </sheetData>
